--- a/xlsx/恐怖主义_intext.xlsx
+++ b/xlsx/恐怖主义_intext.xlsx
@@ -15,891 +15,885 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>恐怖主义</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90</t>
+  </si>
+  <si>
+    <t>反恐</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>共产党恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>生态恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>种族恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>民族恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>伊斯兰恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>基督教恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>犹太教恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>农业恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%AB%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>劫机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>生物恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6%E7%82%B8%E5%BC%B9</t>
+  </si>
+  <si>
+    <t>汽车炸弹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%9C</t>
+  </si>
+  <si>
+    <t>海盗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E5%AE%A3%E5%82%B3</t>
+  </si>
+  <si>
+    <t>行动宣传</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%AE%BA%E6%94%BB%E6%93%8A</t>
+  </si>
+  <si>
+    <t>自杀攻击</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>国家恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%8B%BC%E6%81%90%E6%80%96%E5%88%86%E5%AD%90</t>
+  </si>
+  <si>
+    <t>独狼恐怖分子</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%B5%B1%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>恐怖统治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E6%81%90%E6%80%96</t>
+  </si>
+  <si>
+    <t>红色恐怖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%89%B2%E6%81%90%E6%80%96</t>
+  </si>
+  <si>
+    <t>白色恐怖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>恐怖组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E6%B4%BB%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>恐怖活动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA175%E8%99%9F%E7%8F%AD%E6%A9%9F%E6%81%90%E6%80%96%E8%A5%B2%E6%93%8A</t>
+  </si>
+  <si>
+    <t>联合航空175号班机恐怖袭击</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%B2%BF%E4%B8%AD%E5%BF%83</t>
+  </si>
+  <si>
+    <t>世贸中心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E6%8B%89%E7%99%BB</t>
+  </si>
+  <si>
+    <t>宾拉登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E9%81%94%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>盖达组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%A0%98</t>
+  </si>
+  <si>
+    <t>首领</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E8%B2%9D%E5%85%8B%E7%88%BE%C2%B7%E5%B7%B4%E6%A0%BC%E9%81%94%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>阿布·贝克尔·巴格达迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>伊斯兰国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E7%99%BC</t>
+  </si>
+  <si>
+    <t>哈里发</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E4%BA%BA%E6%B0%91%E9%98%B5%E7%BA%BF</t>
+  </si>
+  <si>
+    <t>解放巴勒斯坦人民阵线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
+  </si>
+  <si>
+    <t>意识形态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91</t>
+  </si>
+  <si>
+    <t>平民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>暴力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B7%98%E9%BB%98%E6%B3%95%E5%89%87</t>
+  </si>
+  <si>
+    <t>缄默法则</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E5%8A%A8%E8%AF%8D</t>
+  </si>
+  <si>
+    <t>拉丁语动词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B8%83%E9%87%8C%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>辛布里人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>法国大革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E8%B3%93%E4%BF%B1%E6%A8%82%E9%83%A8</t>
+  </si>
+  <si>
+    <t>雅各宾俱乐部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%84%8F%E5%BF%97</t>
+  </si>
+  <si>
+    <t>人民意志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%9D%A9%E5%91%BD%E5%85%9A</t>
+  </si>
+  <si>
+    <t>社会革命党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89%E8%80%85</t>
+  </si>
+  <si>
+    <t>无政府主义者</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E4%BF%84</t>
+  </si>
+  <si>
+    <t>沙俄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E4%BA%8C%E4%B8%96_(%E4%BF%84%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>亚历山大二世 (俄国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%9C%88%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>十月革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E4%BB%80%E7%BB%B4%E5%85%8B</t>
+  </si>
+  <si>
+    <t>布尔什维克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E4%B9%8C%E9%87%8C%E6%89%AC%E8%AF%BA%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>亚历山大·乌里扬诺夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E9%95%B7</t>
+  </si>
+  <si>
+    <t>联合国秘书长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E6%B1%BA</t>
+  </si>
+  <si>
+    <t>民族自决</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%B0%8D%E7%A8%B1%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>不对称战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E8%A7%A3%E6%94%BE%E9%98%B5%E7%BA%BF</t>
+  </si>
+  <si>
+    <t>地球解放阵线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E8%A7%A3%E6%94%BE%E9%98%B5%E7%BA%BF</t>
+  </si>
+  <si>
+    <t>动物解放阵线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94</t>
+  </si>
+  <si>
+    <t>巴格达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%B5%E6%8A%97%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>抵抗运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%9B%A2%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>分离主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>民团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BA%96%E8%BB%8D%E4%BA%8B%E9%83%A8%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>准军事部队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%93%8A%E6%88%B0</t>
+  </si>
+  <si>
+    <t>游击战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%89%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>举事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%88%B0</t>
+  </si>
+  <si>
+    <t>圣战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%88%B0%E8%80%85</t>
+  </si>
+  <si>
+    <t>圣战者</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E5%88%A9%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>功利主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%A8%80</t>
+  </si>
+  <si>
+    <t>格言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>第二次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%BB%8D</t>
+  </si>
+  <si>
+    <t>英军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E6%97%A5</t>
+  </si>
+  <si>
+    <t>抗日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%8D%B1%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>马来西亚危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E4%BA%BA%E6%B0%91%E8%A7%A3%E6%94%BE%E8%BB%8D</t>
+  </si>
+  <si>
+    <t>马来亚人民解放军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>里根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
+  </si>
+  <si>
+    <t>苏联</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(1979%E5%B9%B4)</t>
+  </si>
+  <si>
+    <t>阿富汗战争 (1979年)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>小布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>卡尔顿大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E</t>
+  </si>
+  <si>
+    <t>诺贝尔奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E7%BA%B3%E8%B5%AB%E5%A7%86%C2%B7%E8%B4%9D%E4%BA%AC</t>
+  </si>
+  <si>
+    <t>梅纳赫姆·贝京</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%88%BE%E9%81%9C%C2%B7%E6%9B%BC%E5%BE%B7%E6%8B%89</t>
+  </si>
+  <si>
+    <t>纳尔逊·曼德拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E6%8B%89%C2%B7%E4%BD%A9%E6%9E%97</t>
+  </si>
+  <si>
+    <t>莎拉·佩林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%C2%B7%E6%8B%9C%E7%99%BB</t>
+  </si>
+  <si>
+    <t>乔·拜登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A7%A3%E5%AF%86</t>
+  </si>
+  <si>
+    <t>维基解密</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%88%A9%E5%AE%89%C2%B7%E9%98%BF%E6%A1%91%E5%A5%87</t>
+  </si>
+  <si>
+    <t>朱利安·阿桑奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B4%E6%97%B6%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%86%9B</t>
+  </si>
+  <si>
+    <t>临时爱尔兰共和军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%B4%A8</t>
+  </si>
+  <si>
+    <t>人质</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9C%B0%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>基地组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>九一一事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A3%AE%E6%A9%9F%E5%A0%B4%E5%8A%AB%E6%A9%9F%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>道森机场劫机事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E7%A7%91%C2%B7%E4%BD%9B%E6%9C%97%E5%93%A5</t>
+  </si>
+  <si>
+    <t>弗朗西斯科·佛朗哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%94</t>
+  </si>
+  <si>
+    <t>埃塔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E9%9F%8B%E6%89%98%C2%B7%E8%97%A4%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>阿尔韦托·藤森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%98%8E%E4%B9%8B%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>光明之路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E5%BE%B7%E5%B7%A5%E4%BA%BA%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>库尔德工人党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%BA%BA%E5%9C%8B%E6%B0%91%E5%A4%A7%E6%9C%83</t>
+  </si>
+  <si>
+    <t>非洲人国民大会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%9C%9F%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>本土恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E5%8D%A1%E7%B6%AD</t>
+  </si>
+  <si>
+    <t>扎卡维</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E6%B2%99%E8%80%B6%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>阿布沙耶夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>摩洛人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%82%E8%8E%AB%E8%A5%BF%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E9%BA%A5%E5%85%8B%E7%B6%AD</t>
+  </si>
+  <si>
+    <t>蒂莫西·詹姆士·麦克维</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%B1%B3%E5%B0%94%E7%8C%9B%E8%99%8E%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>泰米尔猛虎组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%AA%81%E5%8E%A5%E6%96%AF%E5%9D%A6%E4%BC%8A%E6%96%AF%E5%85%B0%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>东突厥斯坦伊斯兰运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%AA%81%E5%8E%A5%E6%96%AF%E5%9D%A6%E8%A7%A3%E6%94%BE%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>东突厥斯坦解放组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%88%A9%E7%8F%AD</t>
+  </si>
+  <si>
+    <t>塔利班</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%A7%91%E5%9C%A3%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>博科圣地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E9%9D%92%E5%B9%B4%E5%85%9A</t>
+  </si>
+  <si>
+    <t>索马里青年党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E4%B8%BB%E5%85%9A</t>
+  </si>
+  <si>
+    <t>真主党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%86%9B%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>红军派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E6%95%99%E7%A5%88%E7%A6%B1%E5%9C%98</t>
+  </si>
+  <si>
+    <t>回教祈祷团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E6%96%AF%E6%8B%89%E9%99%A3%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>努斯拉阵线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>青年党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E6%95%99%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>大卫教派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%B1%B9%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>黑豹党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>哈马斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%8D%AB%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>伊斯兰卫士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E9%85%8B%E9%95%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>高加索酋长国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%B5%A4%E8%BB%8D</t>
+  </si>
+  <si>
+    <t>日本赤军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%87%A1%E5%9B%9B%E4%B8%96</t>
+  </si>
+  <si>
+    <t>伊凡四世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91%E5%A4%A7%E5%85%AC</t>
+  </si>
+  <si>
+    <t>莫斯科大公</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>法西斯主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>原教旨主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>伊斯兰法西斯主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>犹太恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>种族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%AF%95%E9%AA%8C</t>
+  </si>
+  <si>
+    <t>人体试验</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%99%90%E6%88%B0</t>
+  </si>
+  <si>
+    <t>超限战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>恐怖事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E8%A2%AD%E5%87%BB</t>
+  </si>
+  <si>
+    <t>恐怖袭击</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>黑社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E9%9B%86%E5%9C%98</t>
+  </si>
+  <si>
+    <t>犯罪集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%B0%8D%E7%A8%B1%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>非对称战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>哥伦比亚大学出版社</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E8%B5%9F</t>
+  </si>
+  <si>
+    <t>陶赟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞士历史辞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>恐怖主義</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_恐怖主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90</t>
-  </si>
-  <si>
-    <t>反恐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>共產黨恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>生態恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>種族恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>民族恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>伊斯蘭恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>基督教恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>猶太教恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>農業恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%AB%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>劫機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>生物恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6%E7%82%B8%E5%BC%B9</t>
-  </si>
-  <si>
-    <t>汽车炸弹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%9C</t>
-  </si>
-  <si>
-    <t>海盜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E5%AE%A3%E5%82%B3</t>
-  </si>
-  <si>
-    <t>行動宣傳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%AE%BA%E6%94%BB%E6%93%8A</t>
-  </si>
-  <si>
-    <t>自殺攻擊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>國家恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%8B%BC%E6%81%90%E6%80%96%E5%88%86%E5%AD%90</t>
-  </si>
-  <si>
-    <t>獨狼恐怖分子</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%B5%B1%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>恐怖統治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E6%81%90%E6%80%96</t>
-  </si>
-  <si>
-    <t>红色恐怖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%89%B2%E6%81%90%E6%80%96</t>
-  </si>
-  <si>
-    <t>白色恐怖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>恐怖組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E6%B4%BB%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>恐怖活动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA175%E8%99%9F%E7%8F%AD%E6%A9%9F%E6%81%90%E6%80%96%E8%A5%B2%E6%93%8A</t>
-  </si>
-  <si>
-    <t>聯合航空175號班機恐怖襲擊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%B2%BF%E4%B8%AD%E5%BF%83</t>
-  </si>
-  <si>
-    <t>世貿中心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E6%8B%89%E7%99%BB</t>
-  </si>
-  <si>
-    <t>賓拉登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E9%81%94%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>蓋達組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%A0%98</t>
-  </si>
-  <si>
-    <t>首領</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E8%B2%9D%E5%85%8B%E7%88%BE%C2%B7%E5%B7%B4%E6%A0%BC%E9%81%94%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>阿布·貝克爾·巴格達迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>伊斯蘭國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E7%99%BC</t>
-  </si>
-  <si>
-    <t>哈里發</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E4%BA%BA%E6%B0%91%E9%98%B5%E7%BA%BF</t>
-  </si>
-  <si>
-    <t>解放巴勒斯坦人民阵线</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
-  </si>
-  <si>
-    <t>意识形态</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91</t>
-  </si>
-  <si>
-    <t>平民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>暴力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B7%98%E9%BB%98%E6%B3%95%E5%89%87</t>
-  </si>
-  <si>
-    <t>緘默法則</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E5%8A%A8%E8%AF%8D</t>
-  </si>
-  <si>
-    <t>拉丁语动词</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B8%83%E9%87%8C%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>辛布里人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>法國大革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E8%B3%93%E4%BF%B1%E6%A8%82%E9%83%A8</t>
-  </si>
-  <si>
-    <t>雅各賓俱樂部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%84%8F%E5%BF%97</t>
-  </si>
-  <si>
-    <t>人民意志</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%9D%A9%E5%91%BD%E5%85%9A</t>
-  </si>
-  <si>
-    <t>社会革命党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89%E8%80%85</t>
-  </si>
-  <si>
-    <t>无政府主义者</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E4%BF%84</t>
-  </si>
-  <si>
-    <t>沙俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E4%BA%8C%E4%B8%96_(%E4%BF%84%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>亚历山大二世 (俄国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%9C%88%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>十月革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E4%BB%80%E7%BB%B4%E5%85%8B</t>
-  </si>
-  <si>
-    <t>布尔什维克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E4%B9%8C%E9%87%8C%E6%89%AC%E8%AF%BA%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>亚历山大·乌里扬诺夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E9%95%B7</t>
-  </si>
-  <si>
-    <t>聯合國秘書長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E6%B1%BA</t>
-  </si>
-  <si>
-    <t>民族自決</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%B0%8D%E7%A8%B1%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>不對稱戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E8%A7%A3%E6%94%BE%E9%98%B5%E7%BA%BF</t>
-  </si>
-  <si>
-    <t>地球解放阵线</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E8%A7%A3%E6%94%BE%E9%98%B5%E7%BA%BF</t>
-  </si>
-  <si>
-    <t>动物解放阵线</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94</t>
-  </si>
-  <si>
-    <t>巴格達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%B5%E6%8A%97%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>抵抗運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%9B%A2%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>分離主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>民团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BA%96%E8%BB%8D%E4%BA%8B%E9%83%A8%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>準軍事部隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%93%8A%E6%88%B0</t>
-  </si>
-  <si>
-    <t>游擊戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%89%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>舉事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%88%B0</t>
-  </si>
-  <si>
-    <t>聖戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%88%B0%E8%80%85</t>
-  </si>
-  <si>
-    <t>聖戰者</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E5%88%A9%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>功利主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%A8%80</t>
-  </si>
-  <si>
-    <t>格言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>第二次世界大戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%BB%8D</t>
-  </si>
-  <si>
-    <t>英軍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E6%97%A5</t>
-  </si>
-  <si>
-    <t>抗日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%8D%B1%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>马来西亚危机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E4%BA%BA%E6%B0%91%E8%A7%A3%E6%94%BE%E8%BB%8D</t>
-  </si>
-  <si>
-    <t>馬來亞人民解放軍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>里根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
-  </si>
-  <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(1979%E5%B9%B4)</t>
-  </si>
-  <si>
-    <t>阿富汗戰爭 (1979年)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>小布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>卡爾頓大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E</t>
-  </si>
-  <si>
-    <t>諾貝爾獎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E7%BA%B3%E8%B5%AB%E5%A7%86%C2%B7%E8%B4%9D%E4%BA%AC</t>
-  </si>
-  <si>
-    <t>梅纳赫姆·贝京</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%88%BE%E9%81%9C%C2%B7%E6%9B%BC%E5%BE%B7%E6%8B%89</t>
-  </si>
-  <si>
-    <t>納爾遜·曼德拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E6%8B%89%C2%B7%E4%BD%A9%E6%9E%97</t>
-  </si>
-  <si>
-    <t>莎拉·佩林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%C2%B7%E6%8B%9C%E7%99%BB</t>
-  </si>
-  <si>
-    <t>乔·拜登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A7%A3%E5%AF%86</t>
-  </si>
-  <si>
-    <t>維基解密</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%88%A9%E5%AE%89%C2%B7%E9%98%BF%E6%A1%91%E5%A5%87</t>
-  </si>
-  <si>
-    <t>朱利安·阿桑奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B4%E6%97%B6%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%86%9B</t>
-  </si>
-  <si>
-    <t>临时爱尔兰共和军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%B4%A8</t>
-  </si>
-  <si>
-    <t>人质</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9C%B0%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>基地组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>九一一事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A3%AE%E6%A9%9F%E5%A0%B4%E5%8A%AB%E6%A9%9F%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>道森機場劫機事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E7%A7%91%C2%B7%E4%BD%9B%E6%9C%97%E5%93%A5</t>
-  </si>
-  <si>
-    <t>弗朗西斯科·佛朗哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%94</t>
-  </si>
-  <si>
-    <t>埃塔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>秘魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E9%9F%8B%E6%89%98%C2%B7%E8%97%A4%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>阿爾韋托·藤森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%98%8E%E4%B9%8B%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>光明之路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E5%BE%B7%E5%B7%A5%E4%BA%BA%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>庫爾德工人黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%BA%BA%E5%9C%8B%E6%B0%91%E5%A4%A7%E6%9C%83</t>
-  </si>
-  <si>
-    <t>非洲人國民大會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%9C%9F%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>本土恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E5%8D%A1%E7%B6%AD</t>
-  </si>
-  <si>
-    <t>扎卡維</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E6%B2%99%E8%80%B6%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>阿布沙耶夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>摩洛人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%82%E8%8E%AB%E8%A5%BF%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E9%BA%A5%E5%85%8B%E7%B6%AD</t>
-  </si>
-  <si>
-    <t>蒂莫西·詹姆士·麥克維</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%B1%B3%E5%B0%94%E7%8C%9B%E8%99%8E%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>泰米尔猛虎组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%AA%81%E5%8E%A5%E6%96%AF%E5%9D%A6%E4%BC%8A%E6%96%AF%E5%85%B0%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>东突厥斯坦伊斯兰运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%AA%81%E5%8E%A5%E6%96%AF%E5%9D%A6%E8%A7%A3%E6%94%BE%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>东突厥斯坦解放组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>伊斯兰国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%88%A9%E7%8F%AD</t>
-  </si>
-  <si>
-    <t>塔利班</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%A7%91%E5%9C%A3%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>博科圣地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E9%9D%92%E5%B9%B4%E5%85%9A</t>
-  </si>
-  <si>
-    <t>索马里青年党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E4%B8%BB%E5%85%9A</t>
-  </si>
-  <si>
-    <t>真主党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%86%9B%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>红军派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E6%95%99%E7%A5%88%E7%A6%B1%E5%9C%98</t>
-  </si>
-  <si>
-    <t>回教祈禱團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E6%96%AF%E6%8B%89%E9%99%A3%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>努斯拉陣線</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>青年黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E6%95%99%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>大衛教派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%B1%B9%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>黑豹黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>哈馬斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%8D%AB%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>伊斯兰卫士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E9%85%8B%E9%95%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>高加索酋長國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%B5%A4%E8%BB%8D</t>
-  </si>
-  <si>
-    <t>日本赤軍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%87%A1%E5%9B%9B%E4%B8%96</t>
-  </si>
-  <si>
-    <t>伊凡四世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91%E5%A4%A7%E5%85%AC</t>
-  </si>
-  <si>
-    <t>莫斯科大公</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>法西斯主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>原教旨主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>伊斯蘭法西斯主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>猶太恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>種族主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%AF%95%E9%AA%8C</t>
-  </si>
-  <si>
-    <t>人体试验</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%99%90%E6%88%B0</t>
-  </si>
-  <si>
-    <t>超限戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>恐怖组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>恐怖事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E8%A2%AD%E5%87%BB</t>
-  </si>
-  <si>
-    <t>恐怖袭击</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>黑社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E9%9B%86%E5%9C%98</t>
-  </si>
-  <si>
-    <t>犯罪集團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%B0%8D%E7%A8%B1%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>非對稱戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>哥倫比亞大學出版社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>联合国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E8%B5%9F</t>
-  </si>
-  <si>
-    <t>陶赟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞士歷史辭典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -1331,7 +1325,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -1360,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -1389,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -1447,7 +1441,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -1476,7 +1470,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -1505,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -1563,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -1592,7 +1586,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -1737,7 +1731,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -1766,7 +1760,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -1795,7 +1789,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -1824,7 +1818,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -1882,7 +1876,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -1911,7 +1905,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -1940,7 +1934,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -1998,7 +1992,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -2027,7 +2021,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -2085,7 +2079,7 @@
         <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -2114,7 +2108,7 @@
         <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -2201,7 +2195,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -2230,7 +2224,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -2259,7 +2253,7 @@
         <v>70</v>
       </c>
       <c r="G35" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -2288,7 +2282,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -2317,7 +2311,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -2346,7 +2340,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -2462,7 +2456,7 @@
         <v>84</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -2491,7 +2485,7 @@
         <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -2578,7 +2572,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -2607,7 +2601,7 @@
         <v>94</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -2781,7 +2775,7 @@
         <v>106</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -2810,7 +2804,7 @@
         <v>108</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -2897,7 +2891,7 @@
         <v>114</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -2926,7 +2920,7 @@
         <v>116</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -2978,13 +2972,13 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -3007,13 +3001,13 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -3071,7 +3065,7 @@
         <v>124</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -3100,7 +3094,7 @@
         <v>126</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -3129,7 +3123,7 @@
         <v>128</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -3158,7 +3152,7 @@
         <v>130</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -3216,7 +3210,7 @@
         <v>134</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -3303,7 +3297,7 @@
         <v>140</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -3332,7 +3326,7 @@
         <v>142</v>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -3738,7 +3732,7 @@
         <v>170</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -3767,7 +3761,7 @@
         <v>172</v>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -3796,7 +3790,7 @@
         <v>174</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -3906,13 +3900,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -3935,13 +3929,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -3964,10 +3958,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3993,13 +3987,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -4022,10 +4016,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4051,10 +4045,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4080,10 +4074,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4109,10 +4103,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4138,10 +4132,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4167,10 +4161,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4196,10 +4190,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4225,10 +4219,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4254,10 +4248,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4283,10 +4277,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4312,10 +4306,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4370,10 +4364,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4399,10 +4393,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4428,10 +4422,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4457,10 +4451,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4486,10 +4480,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4515,10 +4509,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4544,10 +4538,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4573,10 +4567,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4602,10 +4596,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4631,10 +4625,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4660,13 +4654,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -4689,10 +4683,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4718,13 +4712,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -4747,10 +4741,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4776,10 +4770,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4805,10 +4799,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4834,10 +4828,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4863,10 +4857,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4892,10 +4886,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4921,13 +4915,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -4950,10 +4944,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4979,13 +4973,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5008,10 +5002,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5037,10 +5031,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5066,10 +5060,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5095,10 +5089,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5124,13 +5118,13 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -5153,10 +5147,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5182,13 +5176,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5211,10 +5205,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5240,10 +5234,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5269,10 +5263,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5298,10 +5292,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5446,7 +5440,7 @@
         <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>106</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5472,13 +5466,13 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" t="s">
         <v>277</v>
       </c>
-      <c r="F146" t="s">
-        <v>278</v>
-      </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -5501,10 +5495,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>278</v>
+      </c>
+      <c r="F147" t="s">
         <v>279</v>
-      </c>
-      <c r="F147" t="s">
-        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5530,13 +5524,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>280</v>
+      </c>
+      <c r="F148" t="s">
         <v>281</v>
       </c>
-      <c r="F148" t="s">
-        <v>282</v>
-      </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -5559,10 +5553,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>282</v>
+      </c>
+      <c r="F149" t="s">
         <v>283</v>
-      </c>
-      <c r="F149" t="s">
-        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5588,13 +5582,13 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>284</v>
+      </c>
+      <c r="F150" t="s">
         <v>285</v>
       </c>
-      <c r="F150" t="s">
-        <v>286</v>
-      </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -5617,10 +5611,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>286</v>
+      </c>
+      <c r="F151" t="s">
         <v>287</v>
-      </c>
-      <c r="F151" t="s">
-        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5646,10 +5640,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>288</v>
+      </c>
+      <c r="F152" t="s">
         <v>289</v>
-      </c>
-      <c r="F152" t="s">
-        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5675,13 +5669,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>290</v>
+      </c>
+      <c r="F153" t="s">
         <v>291</v>
       </c>
-      <c r="F153" t="s">
-        <v>292</v>
-      </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -5704,10 +5698,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
